--- a/com.crudtable.selenium/TestData/Data.xlsx
+++ b/com.crudtable.selenium/TestData/Data.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Update_Details" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">testuser</t>
   </si>
@@ -31,6 +32,15 @@
     <t xml:space="preserve">0501234567</t>
   </si>
   <si>
+    <t xml:space="preserve">John Doe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">johndoe@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(171)555-2222 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Eliran Duveen</t>
   </si>
   <si>
@@ -38,6 +48,33 @@
   </si>
   <si>
     <t xml:space="preserve">(972)54-991-2103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Parker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peterparker@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(313)555-5735 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fran Wilson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">franwilson@mail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(503)555-9931 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(000)-000-0000</t>
   </si>
 </sst>
 </file>
@@ -280,7 +317,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +331,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,7 +440,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
   </cols>
@@ -419,27 +460,54 @@
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="hlw4781@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="johndoe@mail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="peterparker@mail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -449,4 +517,48 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="updated@mail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/com.crudtable.selenium/TestData/Data.xlsx
+++ b/com.crudtable.selenium/TestData/Data.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Details" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Update_Details" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">John Doe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">johndoe@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(171)555-2222 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Parker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peterparker@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(313)555-5735 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fran Wilson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">franwilson@mail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(503)555-9931 </t>
+  </si>
   <si>
     <t xml:space="preserve">testuser</t>
   </si>
@@ -32,15 +60,6 @@
     <t xml:space="preserve">0501234567</t>
   </si>
   <si>
-    <t xml:space="preserve">John Doe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">johndoe@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(171)555-2222 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Eliran Duveen</t>
   </si>
   <si>
@@ -50,22 +69,40 @@
     <t xml:space="preserve">(972)54-991-2103</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Parker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">peterparker@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(313)555-5735 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fran Wilson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">franwilson@mail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(503)555-9931 </t>
+    <t xml:space="preserve">Lucifer Morningstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucfier@hell.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(666)666-6666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigarnie@hotmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(445)888-6219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clark Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superman@dc.comics.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(747)663-5250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im@batman.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(374)854-6699 </t>
   </si>
   <si>
     <t xml:space="preserve">Updated Name</t>
@@ -317,7 +354,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,16 +363,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -431,28 +464,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0"/>
@@ -460,54 +493,103 @@
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="hlw4781@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="johndoe@mail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="peterparker@mail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="johndoe@mail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="peterparker@mail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="hlw4781@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -527,7 +609,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,13 +622,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -561,4 +643,47 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="hlw4781@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/com.crudtable.selenium/TestData/Data.xlsx
+++ b/com.crudtable.selenium/TestData/Data.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A1:C1 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
